--- a/Catalogue Purchase.xlsx
+++ b/Catalogue Purchase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishabh\Documents\workspace\sweety-jewellers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CF733-29F2-4885-A550-73C8F44BF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8052" windowHeight="7212"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1613,7 +1614,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1963,24 +1964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44795</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44795</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44795</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44795</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44795</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44795</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44746</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44746</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44746</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44746</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44746</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44746</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44746</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44807</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44746</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44746</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44746</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44746</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44746</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44712</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44807</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44746</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44746</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44746</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44712</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44746</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44807</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44746</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44712</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44746</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44746</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44746</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44746</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44746</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44712</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44746</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44712</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44746</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44712</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44807</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44746</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44746</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44746</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44746</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44746</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44807</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44712</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44807</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44746</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44746</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44746</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44712</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44746</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44712</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44746</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44746</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44746</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44746</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44807</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44807</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44746</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44746</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44712</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44746</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44746</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44746</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44746</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44746</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44746</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44746</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44746</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44746</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44746</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44746</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44746</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44746</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44746</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44746</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44807</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44746</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44746</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44746</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44746</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44746</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44746</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44746</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44746</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44746</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44746</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44746</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44746</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44746</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44746</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44746</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44746</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44807</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44746</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44746</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44746</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44712</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44746</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44746</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44746</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44807</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44746</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44746</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44746</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44746</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44746</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44746</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44746</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44746</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44807</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44746</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44746</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44746</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44746</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44746</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44746</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44746</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44746</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44746</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44746</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44746</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44746</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44746</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44807</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44746</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44746</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44746</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44746</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44807</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44746</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44807</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44746</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44807</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44746</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44746</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44746</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44746</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44746</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44746</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44807</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44746</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44746</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44746</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44746</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44746</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44746</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44746</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44746</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44807</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44746</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44746</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44746</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44746</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44746</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44746</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44746</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44746</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44746</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44746</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44746</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44746</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44746</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44746</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44746</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44746</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44746</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44746</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44807</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44746</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44807</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44746</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44746</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44746</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44746</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44746</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44807</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44746</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44746</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44746</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44746</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44746</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44807</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44746</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44746</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44746</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44807</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44746</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44712</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44807</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44746</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44746</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44685</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44710</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44685</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44710</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44699</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44708</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44710</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44708</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44708</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44708</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44712</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44708</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44795</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44692</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44692</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44692</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44692</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44692</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44710</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44746</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44699</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44710</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44710</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44710</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44712</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44710</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44710</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44685</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44710</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44746</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44746</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44795</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44795</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44746</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44784</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44746</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44784</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44795</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44784</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44746</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44685</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44708</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44708</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44708</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44708</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44708</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44708</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44708</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44708</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44708</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44708</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44708</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44708</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44708</v>
       </c>
@@ -7730,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44708</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44708</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44708</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44708</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44784</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44784</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44708</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44708</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44708</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44710</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44795</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44710</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44795</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44795</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44795</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44795</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44710</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>44804</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44699</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44699</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>44708</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>44710</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>44708</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44710</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>44708</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>44710</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>44708</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44708</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>44710</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>44708</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>44712</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>44708</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>44708</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>44708</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>44710</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>44708</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>44708</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>44708</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>44710</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>44708</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>44708</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>44710</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>44708</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>44710</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44708</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44699</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44795</v>
       </c>
@@ -8811,7 +8812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>44699</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>44699</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44699</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>44710</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>44710</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>44710</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44710</v>
       </c>
@@ -8972,7 +8973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44710</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>44710</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>44746</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>44712</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>44712</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>44804</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>44795</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44795</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>44784</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>44784</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>44795</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44795</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>44795</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>44795</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>44795</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>44795</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>44795</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>44795</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>44712</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>44746</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>44712</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>44804</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>44795</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>44795</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>44795</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44795</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44699</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>44784</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>44692</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>44699</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44699</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44699</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>44699</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44699</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44699</v>
       </c>
@@ -9777,7 +9778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>44699</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44699</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>44795</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44795</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>44708</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>44708</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>44699</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>44699</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>44699</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>44699</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>44699</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>44699</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>44699</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>44804</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>44804</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>44804</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>44784</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>44784</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>44784</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>44784</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>44784</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>44784</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>44784</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>44784</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>44784</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>44784</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>44795</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>44795</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>44795</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>44795</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>44795</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44795</v>
       </c>
@@ -10513,7 +10514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>44795</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>44795</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44795</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>44795</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>44795</v>
       </c>
@@ -10628,7 +10629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44784</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>44795</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>44795</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44795</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>44795</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44795</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>44795</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>44795</v>
       </c>
@@ -10812,7 +10813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44795</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>44795</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>44795</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44795</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>44795</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>44795</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44795</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>44795</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>44795</v>
       </c>
@@ -11019,7 +11020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>44795</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>44795</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>44795</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>44795</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>44795</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>44795</v>
       </c>
@@ -11157,7 +11158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>44795</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>44795</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>44795</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>44795</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>44795</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>44795</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>44795</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>44712</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>44804</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>44712</v>
       </c>
@@ -11387,9 +11388,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
-        <v>44712</v>
+        <v>44834</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>151</v>
@@ -11410,9 +11411,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
-        <v>44699</v>
+        <v>44852</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>32</v>
@@ -11433,7 +11434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>44692</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>44699</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>44699</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>44699</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>44699</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>44699</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>44699</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>44699</v>
       </c>
@@ -11617,7 +11618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>44699</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>44699</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>44710</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>44795</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>44712</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>44746</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>44710</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>44712</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>44712</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>44795</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>44795</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>44795</v>
       </c>
@@ -11893,7 +11894,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>44795</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>44804</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>44804</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>44804</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>44795</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>44795</v>
       </c>
@@ -12031,9 +12032,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
-        <v>44795</v>
+        <v>44856</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>379</v>
@@ -12054,9 +12055,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
-        <v>44795</v>
+        <v>44856</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>379</v>
@@ -12077,7 +12078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>44795</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>44795</v>
       </c>
@@ -12123,7 +12124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>44795</v>
       </c>
@@ -12146,7 +12147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>44795</v>
       </c>
@@ -12169,7 +12170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>44795</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>44795</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>44795</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>44795</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>44795</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>44795</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>44795</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>44795</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>44795</v>
       </c>
@@ -12376,7 +12377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>44795</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>44795</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>44795</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>44795</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>44795</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>44795</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>44795</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>44795</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>44795</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>44795</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>44795</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>44795</v>
       </c>
@@ -12652,7 +12653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>44795</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>44685</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>44685</v>
       </c>
@@ -12721,7 +12722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>44685</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>44685</v>
       </c>
@@ -12767,7 +12768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>44685</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>44685</v>
       </c>
@@ -12813,7 +12814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>44685</v>
       </c>
@@ -12836,7 +12837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>44685</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>44699</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>44699</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>44699</v>
       </c>
@@ -12928,7 +12929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>44795</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>44795</v>
       </c>
@@ -12974,7 +12975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>44795</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>44784</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>44784</v>
       </c>
@@ -13043,7 +13044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>44795</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>44795</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>44795</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>44795</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>44746</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>44746</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>44746</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>44746</v>
       </c>
@@ -13227,7 +13228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>44746</v>
       </c>
@@ -13250,7 +13251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>44746</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44746</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>44746</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>44746</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>44746</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>44746</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>44746</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>44746</v>
       </c>
@@ -13434,7 +13435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>44746</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>44746</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>44746</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>44746</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>44746</v>
       </c>
@@ -13549,7 +13550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>44746</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>44746</v>
       </c>
@@ -13595,7 +13596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>44746</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>44746</v>
       </c>
@@ -13641,7 +13642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>44746</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>44746</v>
       </c>
@@ -13687,7 +13688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -13700,7 +13701,7 @@
       </c>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -13709,7 +13710,7 @@
       <c r="F511" s="5"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -13718,7 +13719,7 @@
       <c r="F512" s="5"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -13728,7 +13729,7 @@
       <c r="G513" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G509">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G509">
     <sortCondition ref="C2:C509"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
